--- a/food_app/data/restaurant_data_v3.xlsx
+++ b/food_app/data/restaurant_data_v3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvam\Downloads\db_assignment\food_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD29C14-E48C-49A8-B46C-14C95DADF131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131B03DD-044C-44C0-B792-2CFE0318E8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Bar, American, Italian, Vegetarian Friendly</t>
   </si>
   <si>
-    <t>11:30 AM -12:00 AM</t>
-  </si>
-  <si>
     <t>Monday, Wednesday - Sunday</t>
   </si>
   <si>
@@ -1155,6 +1152,9 @@
   </si>
   <si>
     <t>oid</t>
+  </si>
+  <si>
+    <t>11:30 AM-12:00 AM</t>
   </si>
 </sst>
 </file>
@@ -1538,41 +1538,41 @@
   <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" t="s">
         <v>360</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>361</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>362</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>363</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>364</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>365</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>366</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>367</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>368</v>
-      </c>
-      <c r="J1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1586,19 +1586,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
       </c>
       <c r="G2">
         <v>63415167</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <v>1000</v>
@@ -1609,25 +1609,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
       </c>
       <c r="G3">
         <v>88798765</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3">
         <v>1001</v>
@@ -1638,25 +1638,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
       <c r="G4">
         <v>85183763</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>1002</v>
@@ -1667,25 +1667,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
       <c r="G5">
         <v>94317613</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5">
         <v>1003</v>
@@ -1696,25 +1696,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
       </c>
       <c r="G6">
         <v>62620238</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6">
         <v>1004</v>
@@ -1725,25 +1725,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
       </c>
       <c r="G7">
         <v>67388818</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7">
         <v>1005</v>
@@ -1754,25 +1754,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
       </c>
       <c r="G8">
         <v>68183333</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8">
         <v>1006</v>
@@ -1783,25 +1783,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
       </c>
       <c r="G9">
         <v>92303628</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9">
         <v>1007</v>
@@ -1812,25 +1812,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
         <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
       </c>
       <c r="G10">
         <v>88421127</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10">
         <v>1008</v>
@@ -1841,25 +1841,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
       </c>
       <c r="G11">
         <v>94601960</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11">
         <v>1009</v>
@@ -1870,25 +1870,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
       </c>
       <c r="G12">
         <v>81325248</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12">
         <v>1010</v>
@@ -1899,28 +1899,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
         <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
       </c>
       <c r="G13">
         <v>62751002</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13">
         <v>1011</v>
@@ -1931,25 +1931,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
         <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
       </c>
       <c r="G14">
         <v>62227377</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14">
         <v>1012</v>
@@ -1960,25 +1960,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
         <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
       </c>
       <c r="G15">
         <v>88131577</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15">
         <v>1013</v>
@@ -1989,25 +1989,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
         <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
       </c>
       <c r="G16">
         <v>88316875</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16">
         <v>1014</v>
@@ -2018,25 +2018,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
         <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>69</v>
       </c>
       <c r="G17">
         <v>68268240</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17">
         <v>1015</v>
@@ -2047,25 +2047,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
         <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>73</v>
       </c>
       <c r="G18">
         <v>62555744</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J18">
         <v>1016</v>
@@ -2076,25 +2076,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
         <v>74</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>75</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
         <v>76</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>77</v>
       </c>
       <c r="G19">
         <v>67057825</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19">
         <v>1017</v>
@@ -2105,25 +2105,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>79</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
         <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>81</v>
       </c>
       <c r="G20">
         <v>67350308</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J20">
         <v>1018</v>
@@ -2134,25 +2134,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>83</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>84</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>85</v>
-      </c>
-      <c r="F21" t="s">
-        <v>86</v>
       </c>
       <c r="G21">
         <v>88178237</v>
       </c>
       <c r="I21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J21">
         <v>1019</v>
@@ -2163,25 +2163,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
         <v>87</v>
       </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" t="s">
         <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" t="s">
-        <v>89</v>
       </c>
       <c r="G22">
         <v>87416158</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J22">
         <v>1020</v>
@@ -2192,25 +2192,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
         <v>90</v>
       </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
         <v>91</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>92</v>
       </c>
       <c r="G23">
         <v>88282280</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J23">
         <v>1021</v>
@@ -2221,25 +2221,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
         <v>94</v>
       </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>95</v>
       </c>
-      <c r="H24" t="s">
-        <v>96</v>
-      </c>
       <c r="I24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J24">
         <v>1022</v>
@@ -2250,28 +2250,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>98</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
         <v>99</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>100</v>
       </c>
       <c r="G25">
         <v>88919298</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25">
         <v>1023</v>
@@ -2282,25 +2282,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
         <v>102</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>103</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
         <v>104</v>
-      </c>
-      <c r="E26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" t="s">
-        <v>105</v>
       </c>
       <c r="G26">
         <v>93855240</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26">
         <v>1024</v>
@@ -2311,25 +2311,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
         <v>106</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>107</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
         <v>108</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>109</v>
       </c>
       <c r="G27">
         <v>80127569</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27">
         <v>1025</v>
@@ -2340,25 +2340,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
         <v>110</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>111</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
         <v>112</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>113</v>
       </c>
       <c r="G28">
         <v>64425180</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J28">
         <v>1026</v>
@@ -2369,25 +2369,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
         <v>114</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>115</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
         <v>116</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>117</v>
       </c>
       <c r="G29">
         <v>82028168</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J29">
         <v>1027</v>
@@ -2398,25 +2398,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
         <v>118</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>119</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
         <v>120</v>
-      </c>
-      <c r="E30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" t="s">
-        <v>121</v>
       </c>
       <c r="G30">
         <v>96260084</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J30">
         <v>1028</v>
@@ -2427,25 +2427,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
         <v>122</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>123</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>124</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>125</v>
-      </c>
-      <c r="F31" t="s">
-        <v>126</v>
       </c>
       <c r="G31">
         <v>98990412</v>
       </c>
       <c r="I31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J31">
         <v>1001</v>
@@ -2456,25 +2456,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" t="s">
         <v>127</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>128</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>129</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>130</v>
-      </c>
-      <c r="F32" t="s">
-        <v>131</v>
       </c>
       <c r="G32">
         <v>69339365</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J32">
         <v>1002</v>
@@ -2485,25 +2485,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s">
         <v>132</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33" t="s">
-        <v>133</v>
       </c>
       <c r="G33">
         <v>81882530</v>
       </c>
       <c r="I33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J33">
         <v>1003</v>
@@ -2514,25 +2514,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
         <v>134</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>135</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>136</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>137</v>
-      </c>
-      <c r="F34" t="s">
-        <v>138</v>
       </c>
       <c r="G34">
         <v>69287392</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J34">
         <v>1004</v>
@@ -2543,25 +2543,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
         <v>139</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" t="s">
         <v>140</v>
-      </c>
-      <c r="D35" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" t="s">
-        <v>141</v>
       </c>
       <c r="G35">
         <v>81252095</v>
       </c>
       <c r="I35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J35">
         <v>1005</v>
@@ -2572,28 +2572,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" t="s">
         <v>142</v>
       </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>143</v>
-      </c>
-      <c r="F36" t="s">
-        <v>144</v>
       </c>
       <c r="G36">
         <v>83630588</v>
       </c>
       <c r="H36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J36">
         <v>1006</v>
@@ -2604,25 +2604,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
         <v>146</v>
       </c>
-      <c r="C37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" t="s">
         <v>147</v>
-      </c>
-      <c r="E37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F37" t="s">
-        <v>148</v>
       </c>
       <c r="G37">
         <v>64347472</v>
       </c>
       <c r="I37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J37">
         <v>1007</v>
@@ -2633,28 +2633,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" t="s">
         <v>149</v>
       </c>
-      <c r="C38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" t="s">
         <v>150</v>
-      </c>
-      <c r="E38" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" t="s">
-        <v>151</v>
       </c>
       <c r="G38">
         <v>93769842</v>
       </c>
       <c r="H38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38">
         <v>1008</v>
@@ -2665,25 +2665,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
         <v>153</v>
       </c>
-      <c r="C39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" t="s">
         <v>154</v>
-      </c>
-      <c r="E39" t="s">
-        <v>143</v>
-      </c>
-      <c r="F39" t="s">
-        <v>155</v>
       </c>
       <c r="G39">
         <v>86255635</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J39">
         <v>1009</v>
@@ -2694,25 +2694,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" t="s">
         <v>156</v>
-      </c>
-      <c r="C40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" t="s">
-        <v>137</v>
-      </c>
-      <c r="F40" t="s">
-        <v>157</v>
       </c>
       <c r="G40">
         <v>89056216</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J40">
         <v>1010</v>
@@ -2723,25 +2723,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" t="s">
         <v>158</v>
       </c>
-      <c r="C41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" t="s">
         <v>159</v>
-      </c>
-      <c r="E41" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" t="s">
-        <v>160</v>
       </c>
       <c r="G41">
         <v>89421442</v>
       </c>
       <c r="I41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J41">
         <v>1011</v>
@@ -2752,25 +2752,25 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" t="s">
         <v>161</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" t="s">
         <v>162</v>
-      </c>
-      <c r="D42" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" t="s">
-        <v>163</v>
       </c>
       <c r="G42">
         <v>88439490</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J42">
         <v>1012</v>
@@ -2781,25 +2781,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" t="s">
         <v>164</v>
-      </c>
-      <c r="C43" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" t="s">
-        <v>130</v>
-      </c>
-      <c r="F43" t="s">
-        <v>165</v>
       </c>
       <c r="G43">
         <v>97626780</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J43">
         <v>1013</v>
@@ -2810,28 +2810,28 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
         <v>166</v>
       </c>
-      <c r="C44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" t="s">
         <v>167</v>
-      </c>
-      <c r="E44" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" t="s">
-        <v>168</v>
       </c>
       <c r="G44">
         <v>96471372</v>
       </c>
       <c r="H44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J44">
         <v>1014</v>
@@ -2842,25 +2842,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" t="s">
         <v>170</v>
       </c>
-      <c r="C45" t="s">
-        <v>128</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" t="s">
         <v>171</v>
-      </c>
-      <c r="E45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F45" t="s">
-        <v>172</v>
       </c>
       <c r="G45">
         <v>96170554</v>
       </c>
       <c r="I45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J45">
         <v>1015</v>
@@ -2871,25 +2871,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" t="s">
         <v>173</v>
-      </c>
-      <c r="C46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" t="s">
-        <v>150</v>
-      </c>
-      <c r="E46" t="s">
-        <v>125</v>
-      </c>
-      <c r="F46" t="s">
-        <v>174</v>
       </c>
       <c r="G46">
         <v>99109977</v>
       </c>
       <c r="I46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J46">
         <v>1016</v>
@@ -2900,25 +2900,25 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" t="s">
         <v>175</v>
-      </c>
-      <c r="C47" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" t="s">
-        <v>137</v>
-      </c>
-      <c r="F47" t="s">
-        <v>176</v>
       </c>
       <c r="G47">
         <v>83197289</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J47">
         <v>1013</v>
@@ -2929,25 +2929,25 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" t="s">
         <v>177</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
         <v>178</v>
-      </c>
-      <c r="D48" t="s">
-        <v>154</v>
-      </c>
-      <c r="E48" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" t="s">
-        <v>179</v>
       </c>
       <c r="G48">
         <v>88170727</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J48">
         <v>1018</v>
@@ -2958,25 +2958,25 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" t="s">
         <v>180</v>
-      </c>
-      <c r="C49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" t="s">
-        <v>143</v>
-      </c>
-      <c r="F49" t="s">
-        <v>181</v>
       </c>
       <c r="G49">
         <v>86907121</v>
       </c>
       <c r="I49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J49">
         <v>1019</v>
@@ -2987,25 +2987,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" t="s">
         <v>182</v>
-      </c>
-      <c r="C50" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" t="s">
-        <v>130</v>
-      </c>
-      <c r="F50" t="s">
-        <v>183</v>
       </c>
       <c r="G50">
         <v>84196048</v>
       </c>
       <c r="I50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J50">
         <v>1013</v>
@@ -3016,25 +3016,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" t="s">
         <v>184</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" t="s">
         <v>185</v>
-      </c>
-      <c r="D51" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" t="s">
-        <v>186</v>
       </c>
       <c r="G51">
         <v>61067985</v>
       </c>
       <c r="I51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J51">
         <v>1021</v>
@@ -3045,28 +3045,28 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" t="s">
         <v>187</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" t="s">
+        <v>142</v>
+      </c>
+      <c r="F52" t="s">
         <v>188</v>
-      </c>
-      <c r="D52" t="s">
-        <v>154</v>
-      </c>
-      <c r="E52" t="s">
-        <v>143</v>
-      </c>
-      <c r="F52" t="s">
-        <v>189</v>
       </c>
       <c r="G52">
         <v>64806136</v>
       </c>
       <c r="H52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J52">
         <v>1022</v>
@@ -3077,25 +3077,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" t="s">
         <v>191</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>192</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" t="s">
         <v>193</v>
-      </c>
-      <c r="E53" t="s">
-        <v>143</v>
-      </c>
-      <c r="F53" t="s">
-        <v>194</v>
       </c>
       <c r="G53">
         <v>93120958</v>
       </c>
       <c r="I53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J53">
         <v>1023</v>
@@ -3106,25 +3106,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" t="s">
         <v>195</v>
-      </c>
-      <c r="C54" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" t="s">
-        <v>196</v>
       </c>
       <c r="G54">
         <v>97769350</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J54">
         <v>1024</v>
@@ -3135,25 +3135,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" t="s">
         <v>197</v>
       </c>
-      <c r="C55" t="s">
-        <v>162</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" t="s">
         <v>198</v>
-      </c>
-      <c r="E55" t="s">
-        <v>125</v>
-      </c>
-      <c r="F55" t="s">
-        <v>199</v>
       </c>
       <c r="G55">
         <v>96395139</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J55">
         <v>1025</v>
@@ -3164,28 +3164,28 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
         <v>200</v>
       </c>
-      <c r="C56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" t="s">
         <v>201</v>
-      </c>
-      <c r="E56" t="s">
-        <v>130</v>
-      </c>
-      <c r="F56" t="s">
-        <v>202</v>
       </c>
       <c r="G56">
         <v>99349186</v>
       </c>
       <c r="H56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J56">
         <v>1026</v>
@@ -3196,25 +3196,25 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" t="s">
         <v>204</v>
-      </c>
-      <c r="C57" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" t="s">
-        <v>137</v>
-      </c>
-      <c r="F57" t="s">
-        <v>205</v>
       </c>
       <c r="G57">
         <v>85400206</v>
       </c>
       <c r="I57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J57">
         <v>1016</v>
@@ -3225,25 +3225,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" t="s">
         <v>206</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>207</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" t="s">
         <v>208</v>
-      </c>
-      <c r="E58" t="s">
-        <v>137</v>
-      </c>
-      <c r="F58" t="s">
-        <v>209</v>
       </c>
       <c r="G58">
         <v>86210176</v>
       </c>
       <c r="I58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J58">
         <v>1028</v>
@@ -3254,25 +3254,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" t="s">
         <v>210</v>
-      </c>
-      <c r="C59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" t="s">
-        <v>154</v>
-      </c>
-      <c r="E59" t="s">
-        <v>125</v>
-      </c>
-      <c r="F59" t="s">
-        <v>211</v>
       </c>
       <c r="G59">
         <v>65133981</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J59">
         <v>1019</v>
@@ -3283,25 +3283,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" t="s">
         <v>212</v>
-      </c>
-      <c r="C60" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" t="s">
-        <v>154</v>
-      </c>
-      <c r="E60" t="s">
-        <v>143</v>
-      </c>
-      <c r="F60" t="s">
-        <v>213</v>
       </c>
       <c r="G60">
         <v>97135020</v>
       </c>
       <c r="I60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J60">
         <v>1030</v>
@@ -3312,25 +3312,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" t="s">
         <v>214</v>
-      </c>
-      <c r="C61" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" t="s">
-        <v>171</v>
-      </c>
-      <c r="E61" t="s">
-        <v>130</v>
-      </c>
-      <c r="F61" t="s">
-        <v>215</v>
       </c>
       <c r="G61">
         <v>96863639</v>
       </c>
       <c r="I61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J61">
         <v>1031</v>
@@ -3341,25 +3341,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" t="s">
         <v>216</v>
-      </c>
-      <c r="C62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" t="s">
-        <v>129</v>
-      </c>
-      <c r="E62" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" t="s">
-        <v>217</v>
       </c>
       <c r="G62">
         <v>88344277</v>
       </c>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J62">
         <v>1012</v>
@@ -3370,25 +3370,25 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" t="s">
         <v>218</v>
-      </c>
-      <c r="C63" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" t="s">
-        <v>154</v>
-      </c>
-      <c r="E63" t="s">
-        <v>137</v>
-      </c>
-      <c r="F63" t="s">
-        <v>219</v>
       </c>
       <c r="G63">
         <v>84837451</v>
       </c>
       <c r="I63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J63">
         <v>1030</v>
@@ -3399,25 +3399,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" t="s">
         <v>220</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" t="s">
+        <v>129</v>
+      </c>
+      <c r="F64" t="s">
         <v>221</v>
-      </c>
-      <c r="D64" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" t="s">
-        <v>130</v>
-      </c>
-      <c r="F64" t="s">
-        <v>222</v>
       </c>
       <c r="G64">
         <v>93857863</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J64">
         <v>1024</v>
@@ -3428,25 +3428,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>223</v>
-      </c>
-      <c r="C65" t="s">
-        <v>192</v>
-      </c>
-      <c r="D65" t="s">
-        <v>171</v>
-      </c>
-      <c r="E65" t="s">
-        <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>224</v>
       </c>
       <c r="G65">
         <v>97499047</v>
       </c>
       <c r="I65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J65">
         <v>1023</v>
@@ -3457,25 +3457,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" t="s">
         <v>225</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" t="s">
         <v>226</v>
-      </c>
-      <c r="D66" t="s">
-        <v>171</v>
-      </c>
-      <c r="E66" t="s">
-        <v>143</v>
-      </c>
-      <c r="F66" t="s">
-        <v>227</v>
       </c>
       <c r="G66">
         <v>84996755</v>
       </c>
       <c r="I66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J66">
         <v>1017</v>
@@ -3486,25 +3486,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" t="s">
+        <v>225</v>
+      </c>
+      <c r="D67" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67" t="s">
         <v>228</v>
-      </c>
-      <c r="C67" t="s">
-        <v>226</v>
-      </c>
-      <c r="D67" t="s">
-        <v>154</v>
-      </c>
-      <c r="E67" t="s">
-        <v>130</v>
-      </c>
-      <c r="F67" t="s">
-        <v>229</v>
       </c>
       <c r="G67">
         <v>66947155</v>
       </c>
       <c r="I67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J67">
         <v>1018</v>
@@ -3515,25 +3515,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>229</v>
+      </c>
+      <c r="C68" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68" t="s">
+        <v>146</v>
+      </c>
+      <c r="E68" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" t="s">
         <v>230</v>
-      </c>
-      <c r="C68" t="s">
-        <v>226</v>
-      </c>
-      <c r="D68" t="s">
-        <v>147</v>
-      </c>
-      <c r="E68" t="s">
-        <v>137</v>
-      </c>
-      <c r="F68" t="s">
-        <v>231</v>
       </c>
       <c r="G68">
         <v>90619577</v>
       </c>
       <c r="I68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J68">
         <v>1019</v>
@@ -3544,25 +3544,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" t="s">
+        <v>225</v>
+      </c>
+      <c r="D69" t="s">
         <v>232</v>
       </c>
-      <c r="C69" t="s">
-        <v>226</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>233</v>
-      </c>
-      <c r="E69" t="s">
-        <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>234</v>
       </c>
       <c r="G69">
         <v>65607676</v>
       </c>
       <c r="I69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J69">
         <v>1020</v>
@@ -3573,25 +3573,25 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>234</v>
+      </c>
+      <c r="C70" t="s">
+        <v>225</v>
+      </c>
+      <c r="D70" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" t="s">
+        <v>142</v>
+      </c>
+      <c r="F70" t="s">
         <v>235</v>
-      </c>
-      <c r="C70" t="s">
-        <v>226</v>
-      </c>
-      <c r="D70" t="s">
-        <v>154</v>
-      </c>
-      <c r="E70" t="s">
-        <v>143</v>
-      </c>
-      <c r="F70" t="s">
-        <v>236</v>
       </c>
       <c r="G70">
         <v>68141635</v>
       </c>
       <c r="I70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J70">
         <v>1021</v>
@@ -3602,25 +3602,25 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>236</v>
+      </c>
+      <c r="C71" t="s">
+        <v>225</v>
+      </c>
+      <c r="D71" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" t="s">
+        <v>142</v>
+      </c>
+      <c r="F71" t="s">
         <v>237</v>
-      </c>
-      <c r="C71" t="s">
-        <v>226</v>
-      </c>
-      <c r="D71" t="s">
-        <v>167</v>
-      </c>
-      <c r="E71" t="s">
-        <v>143</v>
-      </c>
-      <c r="F71" t="s">
-        <v>238</v>
       </c>
       <c r="G71">
         <v>60711857</v>
       </c>
       <c r="I71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J71">
         <v>1022</v>
@@ -3631,25 +3631,25 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" t="s">
+        <v>225</v>
+      </c>
+      <c r="D72" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>239</v>
-      </c>
-      <c r="C72" t="s">
-        <v>226</v>
-      </c>
-      <c r="D72" t="s">
-        <v>136</v>
-      </c>
-      <c r="E72" t="s">
-        <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>240</v>
       </c>
       <c r="G72">
         <v>85928156</v>
       </c>
       <c r="I72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J72">
         <v>1023</v>
@@ -3660,25 +3660,25 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>241</v>
-      </c>
-      <c r="C73" t="s">
-        <v>226</v>
-      </c>
-      <c r="D73" t="s">
-        <v>159</v>
-      </c>
-      <c r="E73" t="s">
-        <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>242</v>
       </c>
       <c r="G73">
         <v>93821934</v>
       </c>
       <c r="I73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J73">
         <v>1024</v>
@@ -3689,25 +3689,25 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" t="s">
         <v>243</v>
-      </c>
-      <c r="C74" t="s">
-        <v>226</v>
-      </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" t="s">
-        <v>125</v>
-      </c>
-      <c r="F74" t="s">
-        <v>244</v>
       </c>
       <c r="G74">
         <v>62252117</v>
       </c>
       <c r="I74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J74">
         <v>1025</v>
@@ -3718,28 +3718,28 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>244</v>
+      </c>
+      <c r="C75" t="s">
         <v>245</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>246</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" t="s">
         <v>247</v>
-      </c>
-      <c r="E75" t="s">
-        <v>137</v>
-      </c>
-      <c r="F75" t="s">
-        <v>248</v>
       </c>
       <c r="G75">
         <v>91245369</v>
       </c>
       <c r="H75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J75">
         <v>1031</v>
@@ -3750,28 +3750,28 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>249</v>
+      </c>
+      <c r="C76" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76" t="s">
         <v>250</v>
       </c>
-      <c r="C76" t="s">
-        <v>246</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" t="s">
         <v>251</v>
-      </c>
-      <c r="E76" t="s">
-        <v>137</v>
-      </c>
-      <c r="F76" t="s">
-        <v>252</v>
       </c>
       <c r="G76">
         <v>81967916</v>
       </c>
       <c r="H76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J76">
         <v>1032</v>
@@ -3782,28 +3782,28 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>253</v>
+      </c>
+      <c r="C77" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77" t="s">
+        <v>136</v>
+      </c>
+      <c r="F77" t="s">
         <v>254</v>
-      </c>
-      <c r="C77" t="s">
-        <v>246</v>
-      </c>
-      <c r="D77" t="s">
-        <v>251</v>
-      </c>
-      <c r="E77" t="s">
-        <v>137</v>
-      </c>
-      <c r="F77" t="s">
-        <v>255</v>
       </c>
       <c r="G77">
         <v>87708261</v>
       </c>
       <c r="H77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J77">
         <v>1033</v>
@@ -3814,28 +3814,28 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>256</v>
+      </c>
+      <c r="C78" t="s">
         <v>257</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>258</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>259</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>260</v>
-      </c>
-      <c r="F78" t="s">
-        <v>261</v>
       </c>
       <c r="G78">
         <v>83440866</v>
       </c>
       <c r="H78" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J78">
         <v>1034</v>
@@ -3846,28 +3846,28 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" t="s">
+        <v>245</v>
+      </c>
+      <c r="D79" t="s">
         <v>263</v>
       </c>
-      <c r="C79" t="s">
-        <v>246</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" t="s">
         <v>264</v>
-      </c>
-      <c r="E79" t="s">
-        <v>137</v>
-      </c>
-      <c r="F79" t="s">
-        <v>265</v>
       </c>
       <c r="G79">
         <v>83386464</v>
       </c>
       <c r="H79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J79">
         <v>1035</v>
@@ -3878,28 +3878,28 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>266</v>
+      </c>
+      <c r="C80" t="s">
+        <v>257</v>
+      </c>
+      <c r="D80" t="s">
+        <v>263</v>
+      </c>
+      <c r="E80" t="s">
         <v>267</v>
       </c>
-      <c r="C80" t="s">
-        <v>258</v>
-      </c>
-      <c r="D80" t="s">
-        <v>264</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>268</v>
-      </c>
-      <c r="F80" t="s">
-        <v>269</v>
       </c>
       <c r="G80">
         <v>96637221</v>
       </c>
       <c r="H80" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J80">
         <v>1036</v>
@@ -3910,28 +3910,28 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>270</v>
+      </c>
+      <c r="C81" t="s">
+        <v>245</v>
+      </c>
+      <c r="D81" t="s">
+        <v>246</v>
+      </c>
+      <c r="E81" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" t="s">
         <v>271</v>
-      </c>
-      <c r="C81" t="s">
-        <v>246</v>
-      </c>
-      <c r="D81" t="s">
-        <v>247</v>
-      </c>
-      <c r="E81" t="s">
-        <v>137</v>
-      </c>
-      <c r="F81" t="s">
-        <v>272</v>
       </c>
       <c r="G81">
         <v>88303324</v>
       </c>
       <c r="H81" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J81">
         <v>1037</v>
@@ -3942,28 +3942,28 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>273</v>
+      </c>
+      <c r="C82" t="s">
+        <v>257</v>
+      </c>
+      <c r="D82" t="s">
+        <v>192</v>
+      </c>
+      <c r="E82" t="s">
+        <v>267</v>
+      </c>
+      <c r="F82" t="s">
         <v>274</v>
-      </c>
-      <c r="C82" t="s">
-        <v>258</v>
-      </c>
-      <c r="D82" t="s">
-        <v>193</v>
-      </c>
-      <c r="E82" t="s">
-        <v>268</v>
-      </c>
-      <c r="F82" t="s">
-        <v>275</v>
       </c>
       <c r="G82">
         <v>91607505</v>
       </c>
       <c r="H82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J82">
         <v>1038</v>
@@ -3974,28 +3974,28 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" t="s">
+        <v>245</v>
+      </c>
+      <c r="D83" t="s">
+        <v>250</v>
+      </c>
+      <c r="E83" t="s">
+        <v>136</v>
+      </c>
+      <c r="F83" t="s">
         <v>277</v>
-      </c>
-      <c r="C83" t="s">
-        <v>246</v>
-      </c>
-      <c r="D83" t="s">
-        <v>251</v>
-      </c>
-      <c r="E83" t="s">
-        <v>137</v>
-      </c>
-      <c r="F83" t="s">
-        <v>278</v>
       </c>
       <c r="G83">
         <v>80907856</v>
       </c>
       <c r="H83" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J83">
         <v>1039</v>
@@ -4006,28 +4006,28 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>279</v>
+      </c>
+      <c r="C84" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84" t="s">
+        <v>263</v>
+      </c>
+      <c r="E84" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" t="s">
         <v>280</v>
-      </c>
-      <c r="C84" t="s">
-        <v>246</v>
-      </c>
-      <c r="D84" t="s">
-        <v>264</v>
-      </c>
-      <c r="E84" t="s">
-        <v>137</v>
-      </c>
-      <c r="F84" t="s">
-        <v>281</v>
       </c>
       <c r="G84">
         <v>85602946</v>
       </c>
       <c r="H84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J84">
         <v>1040</v>
@@ -4038,28 +4038,28 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>282</v>
+      </c>
+      <c r="C85" t="s">
         <v>283</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>258</v>
+      </c>
+      <c r="E85" t="s">
+        <v>267</v>
+      </c>
+      <c r="F85" t="s">
         <v>284</v>
-      </c>
-      <c r="D85" t="s">
-        <v>259</v>
-      </c>
-      <c r="E85" t="s">
-        <v>268</v>
-      </c>
-      <c r="F85" t="s">
-        <v>285</v>
       </c>
       <c r="G85">
         <v>82109745</v>
       </c>
       <c r="H85" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J85">
         <v>1041</v>
@@ -4070,28 +4070,28 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>286</v>
+      </c>
+      <c r="C86" t="s">
+        <v>283</v>
+      </c>
+      <c r="D86" t="s">
+        <v>263</v>
+      </c>
+      <c r="E86" t="s">
+        <v>259</v>
+      </c>
+      <c r="F86" t="s">
         <v>287</v>
-      </c>
-      <c r="C86" t="s">
-        <v>284</v>
-      </c>
-      <c r="D86" t="s">
-        <v>264</v>
-      </c>
-      <c r="E86" t="s">
-        <v>260</v>
-      </c>
-      <c r="F86" t="s">
-        <v>288</v>
       </c>
       <c r="G86">
         <v>95638458</v>
       </c>
       <c r="H86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J86">
         <v>1042</v>
@@ -4102,28 +4102,28 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>289</v>
+      </c>
+      <c r="C87" t="s">
+        <v>283</v>
+      </c>
+      <c r="D87" t="s">
+        <v>250</v>
+      </c>
+      <c r="E87" t="s">
+        <v>267</v>
+      </c>
+      <c r="F87" t="s">
         <v>290</v>
-      </c>
-      <c r="C87" t="s">
-        <v>284</v>
-      </c>
-      <c r="D87" t="s">
-        <v>251</v>
-      </c>
-      <c r="E87" t="s">
-        <v>268</v>
-      </c>
-      <c r="F87" t="s">
-        <v>291</v>
       </c>
       <c r="G87">
         <v>81884737</v>
       </c>
       <c r="H87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J87">
         <v>1043</v>
@@ -4134,28 +4134,28 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>292</v>
+      </c>
+      <c r="C88" t="s">
         <v>293</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>258</v>
+      </c>
+      <c r="E88" t="s">
+        <v>136</v>
+      </c>
+      <c r="F88" t="s">
         <v>294</v>
-      </c>
-      <c r="D88" t="s">
-        <v>259</v>
-      </c>
-      <c r="E88" t="s">
-        <v>137</v>
-      </c>
-      <c r="F88" t="s">
-        <v>295</v>
       </c>
       <c r="G88">
         <v>95232241</v>
       </c>
       <c r="H88" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J88">
         <v>1044</v>
@@ -4166,28 +4166,28 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>296</v>
+      </c>
+      <c r="C89" t="s">
         <v>297</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>192</v>
+      </c>
+      <c r="E89" t="s">
+        <v>124</v>
+      </c>
+      <c r="F89" t="s">
         <v>298</v>
-      </c>
-      <c r="D89" t="s">
-        <v>193</v>
-      </c>
-      <c r="E89" t="s">
-        <v>125</v>
-      </c>
-      <c r="F89" t="s">
-        <v>299</v>
       </c>
       <c r="G89">
         <v>89411351</v>
       </c>
       <c r="H89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J89">
         <v>1045</v>
@@ -4198,28 +4198,28 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>300</v>
+      </c>
+      <c r="C90" t="s">
+        <v>293</v>
+      </c>
+      <c r="D90" t="s">
+        <v>258</v>
+      </c>
+      <c r="E90" t="s">
+        <v>124</v>
+      </c>
+      <c r="F90" t="s">
         <v>301</v>
-      </c>
-      <c r="C90" t="s">
-        <v>294</v>
-      </c>
-      <c r="D90" t="s">
-        <v>259</v>
-      </c>
-      <c r="E90" t="s">
-        <v>125</v>
-      </c>
-      <c r="F90" t="s">
-        <v>302</v>
       </c>
       <c r="G90">
         <v>94331058</v>
       </c>
       <c r="H90" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J90">
         <v>1045</v>
@@ -4230,28 +4230,28 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>303</v>
+      </c>
+      <c r="C91" t="s">
+        <v>283</v>
+      </c>
+      <c r="D91" t="s">
+        <v>258</v>
+      </c>
+      <c r="E91" t="s">
+        <v>124</v>
+      </c>
+      <c r="F91" t="s">
         <v>304</v>
-      </c>
-      <c r="C91" t="s">
-        <v>284</v>
-      </c>
-      <c r="D91" t="s">
-        <v>259</v>
-      </c>
-      <c r="E91" t="s">
-        <v>125</v>
-      </c>
-      <c r="F91" t="s">
-        <v>305</v>
       </c>
       <c r="G91">
         <v>97629503</v>
       </c>
       <c r="H91" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J91">
         <v>1045</v>
@@ -4262,28 +4262,28 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>306</v>
+      </c>
+      <c r="C92" t="s">
         <v>307</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>192</v>
+      </c>
+      <c r="E92" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" t="s">
         <v>308</v>
-      </c>
-      <c r="D92" t="s">
-        <v>193</v>
-      </c>
-      <c r="E92" t="s">
-        <v>130</v>
-      </c>
-      <c r="F92" t="s">
-        <v>309</v>
       </c>
       <c r="G92">
         <v>81132217</v>
       </c>
       <c r="H92" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J92">
         <v>1046</v>
@@ -4294,28 +4294,28 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>310</v>
+      </c>
+      <c r="C93" t="s">
+        <v>297</v>
+      </c>
+      <c r="D93" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" t="s">
+        <v>259</v>
+      </c>
+      <c r="F93" t="s">
         <v>311</v>
-      </c>
-      <c r="C93" t="s">
-        <v>298</v>
-      </c>
-      <c r="D93" t="s">
-        <v>193</v>
-      </c>
-      <c r="E93" t="s">
-        <v>260</v>
-      </c>
-      <c r="F93" t="s">
-        <v>312</v>
       </c>
       <c r="G93">
         <v>95129878</v>
       </c>
       <c r="H93" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J93">
         <v>1047</v>
@@ -4326,28 +4326,28 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" t="s">
+        <v>293</v>
+      </c>
+      <c r="D94" t="s">
+        <v>192</v>
+      </c>
+      <c r="E94" t="s">
+        <v>259</v>
+      </c>
+      <c r="F94" t="s">
         <v>314</v>
-      </c>
-      <c r="C94" t="s">
-        <v>294</v>
-      </c>
-      <c r="D94" t="s">
-        <v>193</v>
-      </c>
-      <c r="E94" t="s">
-        <v>260</v>
-      </c>
-      <c r="F94" t="s">
-        <v>315</v>
       </c>
       <c r="G94">
         <v>80896601</v>
       </c>
       <c r="H94" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J94">
         <v>1050</v>
@@ -4358,28 +4358,28 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>316</v>
+      </c>
+      <c r="C95" t="s">
+        <v>283</v>
+      </c>
+      <c r="D95" t="s">
+        <v>246</v>
+      </c>
+      <c r="E95" t="s">
+        <v>267</v>
+      </c>
+      <c r="F95" t="s">
         <v>317</v>
-      </c>
-      <c r="C95" t="s">
-        <v>284</v>
-      </c>
-      <c r="D95" t="s">
-        <v>247</v>
-      </c>
-      <c r="E95" t="s">
-        <v>268</v>
-      </c>
-      <c r="F95" t="s">
-        <v>318</v>
       </c>
       <c r="G95">
         <v>85898367</v>
       </c>
       <c r="H95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J95">
         <v>1051</v>
@@ -4390,28 +4390,28 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>319</v>
+      </c>
+      <c r="C96" t="s">
+        <v>293</v>
+      </c>
+      <c r="D96" t="s">
+        <v>246</v>
+      </c>
+      <c r="E96" t="s">
+        <v>124</v>
+      </c>
+      <c r="F96" t="s">
         <v>320</v>
-      </c>
-      <c r="C96" t="s">
-        <v>294</v>
-      </c>
-      <c r="D96" t="s">
-        <v>247</v>
-      </c>
-      <c r="E96" t="s">
-        <v>125</v>
-      </c>
-      <c r="F96" t="s">
-        <v>321</v>
       </c>
       <c r="G96">
         <v>83125770</v>
       </c>
       <c r="H96" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J96">
         <v>1052</v>
@@ -4422,28 +4422,28 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>322</v>
+      </c>
+      <c r="C97" t="s">
+        <v>297</v>
+      </c>
+      <c r="D97" t="s">
+        <v>263</v>
+      </c>
+      <c r="E97" t="s">
+        <v>129</v>
+      </c>
+      <c r="F97" t="s">
         <v>323</v>
-      </c>
-      <c r="C97" t="s">
-        <v>298</v>
-      </c>
-      <c r="D97" t="s">
-        <v>264</v>
-      </c>
-      <c r="E97" t="s">
-        <v>130</v>
-      </c>
-      <c r="F97" t="s">
-        <v>324</v>
       </c>
       <c r="G97">
         <v>83911439</v>
       </c>
       <c r="H97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J97">
         <v>1052</v>
@@ -4454,28 +4454,28 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>325</v>
+      </c>
+      <c r="C98" t="s">
+        <v>293</v>
+      </c>
+      <c r="D98" t="s">
+        <v>192</v>
+      </c>
+      <c r="E98" t="s">
+        <v>267</v>
+      </c>
+      <c r="F98" t="s">
         <v>326</v>
-      </c>
-      <c r="C98" t="s">
-        <v>294</v>
-      </c>
-      <c r="D98" t="s">
-        <v>193</v>
-      </c>
-      <c r="E98" t="s">
-        <v>268</v>
-      </c>
-      <c r="F98" t="s">
-        <v>327</v>
       </c>
       <c r="G98">
         <v>83182832</v>
       </c>
       <c r="H98" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J98">
         <v>1052</v>
@@ -4486,28 +4486,28 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>328</v>
+      </c>
+      <c r="C99" t="s">
         <v>329</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>250</v>
+      </c>
+      <c r="E99" t="s">
+        <v>259</v>
+      </c>
+      <c r="F99" t="s">
         <v>330</v>
-      </c>
-      <c r="D99" t="s">
-        <v>251</v>
-      </c>
-      <c r="E99" t="s">
-        <v>260</v>
-      </c>
-      <c r="F99" t="s">
-        <v>331</v>
       </c>
       <c r="G99">
         <v>92371945</v>
       </c>
       <c r="H99" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J99">
         <v>1055</v>
@@ -4518,28 +4518,28 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>332</v>
+      </c>
+      <c r="C100" t="s">
+        <v>293</v>
+      </c>
+      <c r="D100" t="s">
+        <v>246</v>
+      </c>
+      <c r="E100" t="s">
+        <v>259</v>
+      </c>
+      <c r="F100" t="s">
         <v>333</v>
-      </c>
-      <c r="C100" t="s">
-        <v>294</v>
-      </c>
-      <c r="D100" t="s">
-        <v>247</v>
-      </c>
-      <c r="E100" t="s">
-        <v>260</v>
-      </c>
-      <c r="F100" t="s">
-        <v>334</v>
       </c>
       <c r="G100">
         <v>92997274</v>
       </c>
       <c r="H100" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J100">
         <v>1056</v>
@@ -4550,28 +4550,28 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>335</v>
+      </c>
+      <c r="C101" t="s">
+        <v>293</v>
+      </c>
+      <c r="D101" t="s">
+        <v>258</v>
+      </c>
+      <c r="E101" t="s">
+        <v>136</v>
+      </c>
+      <c r="F101" t="s">
         <v>336</v>
-      </c>
-      <c r="C101" t="s">
-        <v>294</v>
-      </c>
-      <c r="D101" t="s">
-        <v>259</v>
-      </c>
-      <c r="E101" t="s">
-        <v>137</v>
-      </c>
-      <c r="F101" t="s">
-        <v>337</v>
       </c>
       <c r="G101">
         <v>99124642</v>
       </c>
       <c r="H101" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J101">
         <v>1057</v>
@@ -4582,28 +4582,28 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>338</v>
+      </c>
+      <c r="C102" t="s">
+        <v>283</v>
+      </c>
+      <c r="D102" t="s">
+        <v>263</v>
+      </c>
+      <c r="E102" t="s">
+        <v>129</v>
+      </c>
+      <c r="F102" t="s">
         <v>339</v>
-      </c>
-      <c r="C102" t="s">
-        <v>284</v>
-      </c>
-      <c r="D102" t="s">
-        <v>264</v>
-      </c>
-      <c r="E102" t="s">
-        <v>130</v>
-      </c>
-      <c r="F102" t="s">
-        <v>340</v>
       </c>
       <c r="G102">
         <v>96829532</v>
       </c>
       <c r="H102" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J102">
         <v>1048</v>
@@ -4614,28 +4614,28 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>341</v>
+      </c>
+      <c r="C103" t="s">
+        <v>283</v>
+      </c>
+      <c r="D103" t="s">
+        <v>192</v>
+      </c>
+      <c r="E103" t="s">
+        <v>129</v>
+      </c>
+      <c r="F103" t="s">
         <v>342</v>
-      </c>
-      <c r="C103" t="s">
-        <v>284</v>
-      </c>
-      <c r="D103" t="s">
-        <v>193</v>
-      </c>
-      <c r="E103" t="s">
-        <v>130</v>
-      </c>
-      <c r="F103" t="s">
-        <v>343</v>
       </c>
       <c r="G103">
         <v>98710876</v>
       </c>
       <c r="H103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J103">
         <v>1058</v>
@@ -4646,28 +4646,28 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>344</v>
+      </c>
+      <c r="C104" t="s">
+        <v>297</v>
+      </c>
+      <c r="D104" t="s">
+        <v>258</v>
+      </c>
+      <c r="E104" t="s">
+        <v>259</v>
+      </c>
+      <c r="F104" t="s">
         <v>345</v>
-      </c>
-      <c r="C104" t="s">
-        <v>298</v>
-      </c>
-      <c r="D104" t="s">
-        <v>259</v>
-      </c>
-      <c r="E104" t="s">
-        <v>260</v>
-      </c>
-      <c r="F104" t="s">
-        <v>346</v>
       </c>
       <c r="G104">
         <v>94091653</v>
       </c>
       <c r="H104" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J104">
         <v>1049</v>
@@ -4678,28 +4678,28 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>347</v>
+      </c>
+      <c r="C105" t="s">
+        <v>293</v>
+      </c>
+      <c r="D105" t="s">
+        <v>263</v>
+      </c>
+      <c r="E105" t="s">
+        <v>129</v>
+      </c>
+      <c r="F105" t="s">
         <v>348</v>
-      </c>
-      <c r="C105" t="s">
-        <v>294</v>
-      </c>
-      <c r="D105" t="s">
-        <v>264</v>
-      </c>
-      <c r="E105" t="s">
-        <v>130</v>
-      </c>
-      <c r="F105" t="s">
-        <v>349</v>
       </c>
       <c r="G105">
         <v>80654418</v>
       </c>
       <c r="H105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J105">
         <v>1060</v>
@@ -4710,28 +4710,28 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>350</v>
+      </c>
+      <c r="C106" t="s">
+        <v>297</v>
+      </c>
+      <c r="D106" t="s">
+        <v>246</v>
+      </c>
+      <c r="E106" t="s">
+        <v>124</v>
+      </c>
+      <c r="F106" t="s">
         <v>351</v>
-      </c>
-      <c r="C106" t="s">
-        <v>298</v>
-      </c>
-      <c r="D106" t="s">
-        <v>247</v>
-      </c>
-      <c r="E106" t="s">
-        <v>125</v>
-      </c>
-      <c r="F106" t="s">
-        <v>352</v>
       </c>
       <c r="G106">
         <v>88759750</v>
       </c>
       <c r="H106" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J106">
         <v>1059</v>
@@ -4742,28 +4742,28 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>353</v>
+      </c>
+      <c r="C107" t="s">
+        <v>297</v>
+      </c>
+      <c r="D107" t="s">
+        <v>250</v>
+      </c>
+      <c r="E107" t="s">
+        <v>267</v>
+      </c>
+      <c r="F107" t="s">
         <v>354</v>
-      </c>
-      <c r="C107" t="s">
-        <v>298</v>
-      </c>
-      <c r="D107" t="s">
-        <v>251</v>
-      </c>
-      <c r="E107" t="s">
-        <v>268</v>
-      </c>
-      <c r="F107" t="s">
-        <v>355</v>
       </c>
       <c r="G107">
         <v>86248078</v>
       </c>
       <c r="H107" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J107">
         <v>1059</v>
@@ -4774,28 +4774,28 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>356</v>
+      </c>
+      <c r="C108" t="s">
+        <v>329</v>
+      </c>
+      <c r="D108" t="s">
+        <v>246</v>
+      </c>
+      <c r="E108" t="s">
+        <v>129</v>
+      </c>
+      <c r="F108" t="s">
         <v>357</v>
-      </c>
-      <c r="C108" t="s">
-        <v>330</v>
-      </c>
-      <c r="D108" t="s">
-        <v>247</v>
-      </c>
-      <c r="E108" t="s">
-        <v>130</v>
-      </c>
-      <c r="F108" t="s">
-        <v>358</v>
       </c>
       <c r="G108">
         <v>95767182</v>
       </c>
       <c r="H108" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J108">
         <v>1059</v>
